--- a/contratoguia.xlsx
+++ b/contratoguia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenis\OneDrive\Desktop\R_Projects\central_am_migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3BDA87-65F0-4B9E-8DBE-E68688C2E342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05226925-8FDD-4610-ADB7-03E953BF81C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="660" windowWidth="12450" windowHeight="15165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="moneda conversion table" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="102">
   <si>
     <t>Ano</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>percentage_ch</t>
+  </si>
+  <si>
+    <t>adj_perc</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -384,6 +387,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -593,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -742,6 +751,8 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3206,9 +3217,9 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3266,7 +3277,7 @@
       <c r="W1" s="8"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2019</v>
       </c>
@@ -3320,7 +3331,7 @@
       <c r="V2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -3374,7 +3385,7 @@
       <c r="V3" s="5"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2017</v>
       </c>
@@ -3424,7 +3435,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2016</v>
       </c>
@@ -3474,7 +3485,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2015</v>
       </c>
@@ -3524,7 +3535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2014</v>
       </c>
@@ -3574,7 +3585,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -3624,7 +3635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2012</v>
       </c>
@@ -3674,7 +3685,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2011</v>
       </c>
@@ -3724,7 +3735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -3734,7 +3745,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -3744,57 +3755,57 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="26"/>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="26"/>
@@ -3809,254 +3820,287 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" style="103"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2011</v>
       </c>
-      <c r="B2" s="101">
+      <c r="B2" s="102">
+        <v>49</v>
+      </c>
+      <c r="C2" s="101">
         <v>47</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>21.3</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>2470</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>1110</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>5212</v>
       </c>
-      <c r="G2" s="101">
+      <c r="H2" s="101">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2012</v>
       </c>
-      <c r="B3" s="101">
+      <c r="B3" s="102">
+        <v>48</v>
+      </c>
+      <c r="C3" s="101">
         <v>45</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>54.71</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>2608</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>3160</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>5776</v>
       </c>
-      <c r="G3" s="101">
+      <c r="H3" s="101">
         <v>45.15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2013</v>
       </c>
-      <c r="B4" s="101">
+      <c r="B4" s="102">
+        <v>56</v>
+      </c>
+      <c r="C4" s="101">
         <v>54</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>45.7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>3751</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>3191</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>6982</v>
       </c>
-      <c r="G4" s="101">
+      <c r="H4" s="101">
         <v>53.72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2014</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="102">
+        <v>58</v>
+      </c>
+      <c r="C5" s="101">
         <v>56</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>43.49</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>3570</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>2794</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>6424</v>
       </c>
-      <c r="G5" s="101">
+      <c r="H5" s="101">
         <v>55.57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2015</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="102">
+        <v>59</v>
+      </c>
+      <c r="C6" s="101">
         <v>57</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>42.72</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>2855</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>2145</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>5021</v>
       </c>
-      <c r="G6" s="101">
+      <c r="H6" s="101">
         <v>56.86</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B7" s="102">
+        <v>63</v>
+      </c>
+      <c r="C7" s="101">
         <v>61</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>37.97</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>2735</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>1704</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>4488</v>
       </c>
-      <c r="G7" s="101">
+      <c r="H7" s="101">
         <v>60.94</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2017</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
+        <v>61</v>
+      </c>
+      <c r="C8" s="101">
         <v>59</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>39.46</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>2587</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>1725</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>4371</v>
       </c>
-      <c r="G8" s="101">
+      <c r="H8" s="101">
         <v>59.19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2018</v>
       </c>
-      <c r="B9" s="101">
+      <c r="B9" s="102">
+        <v>60</v>
+      </c>
+      <c r="C9" s="101">
         <v>58</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>40.450000000000003</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>2290</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>1605</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>3968</v>
       </c>
-      <c r="G9" s="101">
+      <c r="H9" s="101">
         <v>57.71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2019</v>
       </c>
-      <c r="B10" s="101">
+      <c r="B10" s="102">
+        <v>53</v>
+      </c>
+      <c r="C10" s="101">
         <v>50</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>48.1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>882</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>846</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>1759</v>
       </c>
-      <c r="G10" s="101">
+      <c r="H10" s="101">
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="10">
-        <f t="shared" ref="D11:F11" si="0">SUM(D2:D10)</f>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="10">
+        <f t="shared" ref="E11:G11" si="0">SUM(E2:E10)</f>
         <v>23748</v>
       </c>
-      <c r="E11" s="10">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>18280</v>
       </c>
-      <c r="F11" s="12">
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>44001</v>
       </c>
@@ -4075,9 +4119,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4087,7 +4131,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -4143,7 +4187,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>2011</v>
       </c>
@@ -4196,7 +4240,7 @@
         <v>57.48</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
         <v>2011</v>
       </c>
@@ -4255,7 +4299,7 @@
         <v>60.77</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28">
         <v>2011</v>
       </c>
@@ -4308,7 +4352,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>2011</v>
       </c>
@@ -4361,7 +4405,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38">
         <v>2012</v>
       </c>
@@ -4402,7 +4446,7 @@
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <v>2012</v>
       </c>
@@ -4437,7 +4481,7 @@
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44">
         <v>2012</v>
       </c>
@@ -4472,7 +4516,7 @@
       <c r="N12" s="52"/>
       <c r="O12" s="52"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <v>2012</v>
       </c>
@@ -4504,7 +4548,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>2013</v>
       </c>
@@ -4539,7 +4583,7 @@
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
         <v>2013</v>
       </c>
@@ -4571,7 +4615,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28">
         <v>2013</v>
       </c>
@@ -4603,7 +4647,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <v>2013</v>
       </c>
@@ -4632,7 +4676,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38">
         <v>2014</v>
       </c>
@@ -4664,7 +4708,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44">
         <v>2014</v>
       </c>
@@ -4696,7 +4740,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44">
         <v>2014</v>
       </c>
@@ -4728,7 +4772,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="55">
         <v>2014</v>
       </c>
@@ -4757,7 +4801,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>2015</v>
       </c>
@@ -4789,7 +4833,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28">
         <v>2015</v>
       </c>
@@ -4821,7 +4865,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
         <v>2015</v>
       </c>
@@ -4853,7 +4897,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>2015</v>
       </c>
@@ -4882,7 +4926,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="38">
         <v>2016</v>
       </c>
@@ -4914,7 +4958,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44">
         <v>2016</v>
       </c>
@@ -4946,7 +4990,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="44">
         <v>2016</v>
       </c>
@@ -4978,7 +5022,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="55">
         <v>2016</v>
       </c>
@@ -5007,7 +5051,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>2017</v>
       </c>
@@ -5039,7 +5083,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
         <v>2017</v>
       </c>
@@ -5071,7 +5115,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28">
         <v>2017</v>
       </c>
@@ -5103,7 +5147,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33">
         <v>2017</v>
       </c>
@@ -5132,7 +5176,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="38">
         <v>2018</v>
       </c>
@@ -5164,7 +5208,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44">
         <v>2018</v>
       </c>
@@ -5196,7 +5240,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="44">
         <v>2018</v>
       </c>
@@ -5228,7 +5272,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="55">
         <v>2018</v>
       </c>
@@ -5257,7 +5301,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28">
         <v>2019</v>
       </c>
@@ -5289,7 +5333,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28">
         <v>2019</v>
       </c>
@@ -5321,7 +5365,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28">
         <v>2019</v>
       </c>
@@ -5353,7 +5397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33">
         <v>2019</v>
       </c>
@@ -5382,7 +5426,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
@@ -5391,7 +5435,7 @@
       <c r="H42" s="80"/>
       <c r="I42" s="80"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
@@ -5400,7 +5444,7 @@
       <c r="H43" s="80"/>
       <c r="I43" s="80"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="80"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
@@ -5409,7 +5453,7 @@
       <c r="H44" s="80"/>
       <c r="I44" s="80"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="80"/>
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
@@ -5418,7 +5462,7 @@
       <c r="H45" s="80"/>
       <c r="I45" s="80"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C46" s="80"/>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
@@ -5427,7 +5471,7 @@
       <c r="H46" s="80"/>
       <c r="I46" s="80"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="80"/>
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
@@ -5436,7 +5480,7 @@
       <c r="H47" s="80"/>
       <c r="I47" s="80"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="80"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
@@ -5445,7 +5489,7 @@
       <c r="H48" s="80"/>
       <c r="I48" s="80"/>
     </row>
-    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="80"/>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
@@ -5454,7 +5498,7 @@
       <c r="H49" s="80"/>
       <c r="I49" s="80"/>
     </row>
-    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="80"/>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
@@ -5463,7 +5507,7 @@
       <c r="H50" s="80"/>
       <c r="I50" s="80"/>
     </row>
-    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="80"/>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
@@ -5472,7 +5516,7 @@
       <c r="H51" s="80"/>
       <c r="I51" s="80"/>
     </row>
-    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="80"/>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
@@ -5481,7 +5525,7 @@
       <c r="H52" s="80"/>
       <c r="I52" s="80"/>
     </row>
-    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="80"/>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
@@ -5490,7 +5534,7 @@
       <c r="H53" s="80"/>
       <c r="I53" s="80"/>
     </row>
-    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="80"/>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
@@ -5499,7 +5543,7 @@
       <c r="H54" s="80"/>
       <c r="I54" s="80"/>
     </row>
-    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
@@ -5508,7 +5552,7 @@
       <c r="H55" s="80"/>
       <c r="I55" s="80"/>
     </row>
-    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="80"/>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
@@ -5517,7 +5561,7 @@
       <c r="H56" s="80"/>
       <c r="I56" s="80"/>
     </row>
-    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="80"/>
       <c r="D57" s="80"/>
       <c r="E57" s="80"/>
@@ -5526,7 +5570,7 @@
       <c r="H57" s="80"/>
       <c r="I57" s="80"/>
     </row>
-    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="80"/>
       <c r="D58" s="80"/>
       <c r="E58" s="80"/>
@@ -5535,7 +5579,7 @@
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
     </row>
-    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
@@ -5544,7 +5588,7 @@
       <c r="H59" s="80"/>
       <c r="I59" s="80"/>
     </row>
-    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="80"/>
       <c r="D60" s="80"/>
       <c r="E60" s="80"/>
@@ -5553,7 +5597,7 @@
       <c r="H60" s="80"/>
       <c r="I60" s="80"/>
     </row>
-    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="80"/>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
@@ -5562,7 +5606,7 @@
       <c r="H61" s="80"/>
       <c r="I61" s="80"/>
     </row>
-    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="80"/>
       <c r="D62" s="80"/>
       <c r="E62" s="80"/>
@@ -5571,7 +5615,7 @@
       <c r="H62" s="80"/>
       <c r="I62" s="80"/>
     </row>
-    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="80"/>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -5580,7 +5624,7 @@
       <c r="H63" s="80"/>
       <c r="I63" s="80"/>
     </row>
-    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="80"/>
       <c r="D64" s="80"/>
       <c r="E64" s="80"/>
@@ -5589,7 +5633,7 @@
       <c r="H64" s="80"/>
       <c r="I64" s="80"/>
     </row>
-    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="80"/>
       <c r="D65" s="80"/>
       <c r="E65" s="80"/>
@@ -5598,7 +5642,7 @@
       <c r="H65" s="80"/>
       <c r="I65" s="80"/>
     </row>
-    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
       <c r="E66" s="80"/>
@@ -5607,7 +5651,7 @@
       <c r="H66" s="80"/>
       <c r="I66" s="80"/>
     </row>
-    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="80"/>
       <c r="D67" s="80"/>
       <c r="E67" s="80"/>
@@ -5616,7 +5660,7 @@
       <c r="H67" s="80"/>
       <c r="I67" s="80"/>
     </row>
-    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="80"/>
       <c r="D68" s="80"/>
       <c r="E68" s="80"/>
@@ -5625,7 +5669,7 @@
       <c r="H68" s="80"/>
       <c r="I68" s="80"/>
     </row>
-    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="80"/>
       <c r="D69" s="80"/>
       <c r="E69" s="80"/>
@@ -5634,7 +5678,7 @@
       <c r="H69" s="80"/>
       <c r="I69" s="80"/>
     </row>
-    <row r="70" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C70" s="80"/>
       <c r="D70" s="80"/>
       <c r="E70" s="80"/>
@@ -5643,7 +5687,7 @@
       <c r="H70" s="80"/>
       <c r="I70" s="80"/>
     </row>
-    <row r="71" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="80"/>
       <c r="D71" s="80"/>
       <c r="E71" s="80"/>
@@ -5652,7 +5696,7 @@
       <c r="H71" s="80"/>
       <c r="I71" s="80"/>
     </row>
-    <row r="72" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="80"/>
       <c r="D72" s="80"/>
       <c r="E72" s="80"/>
@@ -5661,7 +5705,7 @@
       <c r="H72" s="80"/>
       <c r="I72" s="80"/>
     </row>
-    <row r="73" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C73" s="80"/>
       <c r="D73" s="80"/>
       <c r="E73" s="80"/>
@@ -5685,9 +5729,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -5698,7 +5742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -5748,7 +5792,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>2012</v>
       </c>
@@ -5801,7 +5845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
         <v>2012</v>
       </c>
@@ -5854,7 +5898,7 @@
         <v>56.65</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -5875,7 +5919,7 @@
       <c r="T8" s="56"/>
       <c r="U8" s="56"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -5896,7 +5940,7 @@
       <c r="T9" s="56"/>
       <c r="U9" s="56"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38">
         <v>2013</v>
       </c>
@@ -5931,7 +5975,7 @@
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <v>2013</v>
       </c>
@@ -5959,7 +6003,7 @@
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
       <c r="B12" s="30"/>
       <c r="E12" s="47"/>
@@ -5969,7 +6013,7 @@
       <c r="N12" s="52"/>
       <c r="O12" s="52"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55"/>
       <c r="B13" s="35"/>
       <c r="C13" s="58"/>
@@ -5984,7 +6028,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>2014</v>
       </c>
@@ -6013,7 +6057,7 @@
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
         <v>2014</v>
       </c>
@@ -6039,7 +6083,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -6051,7 +6095,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -6063,7 +6107,7 @@
       <c r="I17" s="62"/>
       <c r="J17" s="63"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38">
         <v>2015</v>
       </c>
@@ -6089,7 +6133,7 @@
       <c r="I18" s="40"/>
       <c r="J18" s="43"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44">
         <v>2015</v>
       </c>
@@ -6114,13 +6158,13 @@
       <c r="H19" s="44"/>
       <c r="J19" s="50"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
       <c r="B20" s="30"/>
       <c r="H20" s="44"/>
       <c r="J20" s="50"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="55"/>
       <c r="B21" s="35"/>
       <c r="C21" s="58"/>
@@ -6132,7 +6176,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="66"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>2016</v>
       </c>
@@ -6158,7 +6202,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28">
         <v>2016</v>
       </c>
@@ -6184,7 +6228,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -6196,7 +6240,7 @@
       <c r="I24" s="30"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -6208,7 +6252,7 @@
       <c r="I25" s="62"/>
       <c r="J25" s="63"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="38">
         <v>2017</v>
       </c>
@@ -6234,7 +6278,7 @@
       <c r="I26" s="40"/>
       <c r="J26" s="43"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44">
         <v>2017</v>
       </c>
@@ -6259,13 +6303,13 @@
       <c r="H27" s="44"/>
       <c r="J27" s="50"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="44"/>
       <c r="B28" s="30"/>
       <c r="H28" s="44"/>
       <c r="J28" s="50"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="55"/>
       <c r="B29" s="35"/>
       <c r="C29" s="58"/>
@@ -6277,7 +6321,7 @@
       <c r="I29" s="65"/>
       <c r="J29" s="66"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>2018</v>
       </c>
@@ -6303,7 +6347,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
         <v>2018</v>
       </c>
@@ -6329,7 +6373,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -6341,7 +6385,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -6353,7 +6397,7 @@
       <c r="I33" s="62"/>
       <c r="J33" s="63"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="38">
         <v>2019</v>
       </c>
@@ -6379,7 +6423,7 @@
       <c r="I34" s="40"/>
       <c r="J34" s="43"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44">
         <v>2019</v>
       </c>
@@ -6404,13 +6448,13 @@
       <c r="H35" s="44"/>
       <c r="J35" s="50"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="44"/>
       <c r="B36" s="30"/>
       <c r="H36" s="44"/>
       <c r="J36" s="50"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="55"/>
       <c r="B37" s="58"/>
       <c r="C37" s="58"/>
@@ -6422,7 +6466,7 @@
       <c r="I37" s="65"/>
       <c r="J37" s="66"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -6434,7 +6478,7 @@
       <c r="I38" s="30"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -6446,7 +6490,7 @@
       <c r="I39" s="30"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -6458,7 +6502,7 @@
       <c r="I40" s="30"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -6470,7 +6514,7 @@
       <c r="I41" s="62"/>
       <c r="J41" s="63"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
@@ -6479,7 +6523,7 @@
       <c r="H42" s="80"/>
       <c r="I42" s="80"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
@@ -6488,7 +6532,7 @@
       <c r="H43" s="80"/>
       <c r="I43" s="80"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="80"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
@@ -6497,7 +6541,7 @@
       <c r="H44" s="80"/>
       <c r="I44" s="80"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="80"/>
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
@@ -6506,7 +6550,7 @@
       <c r="H45" s="80"/>
       <c r="I45" s="80"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C46" s="80"/>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
@@ -6515,7 +6559,7 @@
       <c r="H46" s="80"/>
       <c r="I46" s="80"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="80"/>
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
@@ -6524,7 +6568,7 @@
       <c r="H47" s="80"/>
       <c r="I47" s="80"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="80"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
@@ -6533,7 +6577,7 @@
       <c r="H48" s="80"/>
       <c r="I48" s="80"/>
     </row>
-    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="80"/>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
@@ -6542,7 +6586,7 @@
       <c r="H49" s="80"/>
       <c r="I49" s="80"/>
     </row>
-    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="80"/>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
@@ -6551,7 +6595,7 @@
       <c r="H50" s="80"/>
       <c r="I50" s="80"/>
     </row>
-    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="80"/>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
@@ -6560,7 +6604,7 @@
       <c r="H51" s="80"/>
       <c r="I51" s="80"/>
     </row>
-    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="80"/>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
@@ -6569,7 +6613,7 @@
       <c r="H52" s="80"/>
       <c r="I52" s="80"/>
     </row>
-    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="80"/>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
@@ -6578,7 +6622,7 @@
       <c r="H53" s="80"/>
       <c r="I53" s="80"/>
     </row>
-    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="80"/>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
@@ -6587,7 +6631,7 @@
       <c r="H54" s="80"/>
       <c r="I54" s="80"/>
     </row>
-    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
@@ -6596,7 +6640,7 @@
       <c r="H55" s="80"/>
       <c r="I55" s="80"/>
     </row>
-    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="80"/>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
@@ -6605,7 +6649,7 @@
       <c r="H56" s="80"/>
       <c r="I56" s="80"/>
     </row>
-    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="80"/>
       <c r="D57" s="80"/>
       <c r="E57" s="80"/>
@@ -6614,7 +6658,7 @@
       <c r="H57" s="80"/>
       <c r="I57" s="80"/>
     </row>
-    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="80"/>
       <c r="D58" s="80"/>
       <c r="E58" s="80"/>
@@ -6623,7 +6667,7 @@
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
     </row>
-    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
@@ -6632,7 +6676,7 @@
       <c r="H59" s="80"/>
       <c r="I59" s="80"/>
     </row>
-    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="80"/>
       <c r="D60" s="80"/>
       <c r="E60" s="80"/>
@@ -6641,7 +6685,7 @@
       <c r="H60" s="80"/>
       <c r="I60" s="80"/>
     </row>
-    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="80"/>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
@@ -6650,7 +6694,7 @@
       <c r="H61" s="80"/>
       <c r="I61" s="80"/>
     </row>
-    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="80"/>
       <c r="D62" s="80"/>
       <c r="E62" s="80"/>
@@ -6659,7 +6703,7 @@
       <c r="H62" s="80"/>
       <c r="I62" s="80"/>
     </row>
-    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="80"/>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -6668,7 +6712,7 @@
       <c r="H63" s="80"/>
       <c r="I63" s="80"/>
     </row>
-    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="80"/>
       <c r="D64" s="80"/>
       <c r="E64" s="80"/>
@@ -6677,7 +6721,7 @@
       <c r="H64" s="80"/>
       <c r="I64" s="80"/>
     </row>
-    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="80"/>
       <c r="D65" s="80"/>
       <c r="E65" s="80"/>
@@ -6686,7 +6730,7 @@
       <c r="H65" s="80"/>
       <c r="I65" s="80"/>
     </row>
-    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
       <c r="E66" s="80"/>
@@ -6695,7 +6739,7 @@
       <c r="H66" s="80"/>
       <c r="I66" s="80"/>
     </row>
-    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="80"/>
       <c r="D67" s="80"/>
       <c r="E67" s="80"/>
@@ -6704,7 +6748,7 @@
       <c r="H67" s="80"/>
       <c r="I67" s="80"/>
     </row>
-    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="80"/>
       <c r="D68" s="80"/>
       <c r="E68" s="80"/>
@@ -6713,7 +6757,7 @@
       <c r="H68" s="80"/>
       <c r="I68" s="80"/>
     </row>
-    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="80"/>
       <c r="D69" s="80"/>
       <c r="E69" s="80"/>
@@ -6722,7 +6766,7 @@
       <c r="H69" s="80"/>
       <c r="I69" s="80"/>
     </row>
-    <row r="70" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C70" s="80"/>
       <c r="D70" s="80"/>
       <c r="E70" s="80"/>
@@ -6731,7 +6775,7 @@
       <c r="H70" s="80"/>
       <c r="I70" s="80"/>
     </row>
-    <row r="71" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="80"/>
       <c r="D71" s="80"/>
       <c r="E71" s="80"/>
@@ -6740,7 +6784,7 @@
       <c r="H71" s="80"/>
       <c r="I71" s="80"/>
     </row>
-    <row r="72" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="80"/>
       <c r="D72" s="80"/>
       <c r="E72" s="80"/>
@@ -6749,7 +6793,7 @@
       <c r="H72" s="80"/>
       <c r="I72" s="80"/>
     </row>
-    <row r="73" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C73" s="80"/>
       <c r="D73" s="80"/>
       <c r="E73" s="80"/>
@@ -6773,9 +6817,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -6813,7 +6857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>2011</v>
       </c>
@@ -6845,7 +6889,7 @@
       <c r="AA2" s="52"/>
       <c r="AB2" s="52"/>
     </row>
-    <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28">
         <v>2011</v>
       </c>
@@ -6933,7 +6977,7 @@
       <c r="AL3" s="78"/>
       <c r="AM3" s="78"/>
     </row>
-    <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28">
         <v>2011</v>
       </c>
@@ -7019,7 +7063,7 @@
       <c r="AL4" s="70"/>
       <c r="AM4" s="70"/>
     </row>
-    <row r="5" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>2011</v>
       </c>
@@ -7107,7 +7151,7 @@
       <c r="AL5" s="70"/>
       <c r="AM5" s="70"/>
     </row>
-    <row r="6" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38">
         <v>2012</v>
       </c>
@@ -7199,7 +7243,7 @@
       <c r="AL6" s="70"/>
       <c r="AM6" s="70"/>
     </row>
-    <row r="7" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>2012</v>
       </c>
@@ -7306,7 +7350,7 @@
       <c r="AL7" s="96"/>
       <c r="AM7" s="96"/>
     </row>
-    <row r="8" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44">
         <v>2012</v>
       </c>
@@ -7343,7 +7387,7 @@
       <c r="T8" s="97"/>
       <c r="AC8" s="98"/>
     </row>
-    <row r="9" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>2012</v>
       </c>
@@ -7381,7 +7425,7 @@
       <c r="N9" s="52"/>
       <c r="O9" s="52"/>
     </row>
-    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>2013</v>
       </c>
@@ -7416,7 +7460,7 @@
       <c r="N10" s="52"/>
       <c r="O10" s="52"/>
     </row>
-    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
         <v>2013</v>
       </c>
@@ -7448,7 +7492,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>2013</v>
       </c>
@@ -7480,7 +7524,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33">
         <v>2013</v>
       </c>
@@ -7515,7 +7559,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38">
         <v>2014</v>
       </c>
@@ -7547,7 +7591,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="44">
         <v>2014</v>
       </c>
@@ -7579,7 +7623,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="44">
         <v>2014</v>
       </c>
@@ -7611,7 +7655,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <v>2014</v>
       </c>
@@ -7646,7 +7690,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>2015</v>
       </c>
@@ -7678,7 +7722,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28">
         <v>2015</v>
       </c>
@@ -7710,7 +7754,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28">
         <v>2015</v>
       </c>
@@ -7742,7 +7786,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33">
         <v>2015</v>
       </c>
@@ -7777,7 +7821,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <v>2016</v>
       </c>
@@ -7809,7 +7853,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="44">
         <v>2016</v>
       </c>
@@ -7841,7 +7885,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="44">
         <v>2016</v>
       </c>
@@ -7873,7 +7917,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="55">
         <v>2016</v>
       </c>
@@ -7908,7 +7952,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>2017</v>
       </c>
@@ -7940,7 +7984,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28">
         <v>2017</v>
       </c>
@@ -7972,7 +8016,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28">
         <v>2017</v>
       </c>
@@ -8004,7 +8048,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="33">
         <v>2017</v>
       </c>
@@ -8039,7 +8083,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="38">
         <v>2018</v>
       </c>
@@ -8071,7 +8115,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="44">
         <v>2018</v>
       </c>
@@ -8103,7 +8147,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44">
         <v>2018</v>
       </c>
@@ -8135,7 +8179,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="55">
         <v>2018</v>
       </c>
@@ -8170,7 +8214,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28">
         <v>2019</v>
       </c>
@@ -8202,7 +8246,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28">
         <v>2019</v>
       </c>
@@ -8234,7 +8278,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28">
         <v>2019</v>
       </c>
@@ -8266,7 +8310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33">
         <v>2019</v>
       </c>
@@ -8301,7 +8345,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="80"/>
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
@@ -8310,7 +8354,7 @@
       <c r="H38" s="80"/>
       <c r="I38" s="80"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="80"/>
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
@@ -8319,7 +8363,7 @@
       <c r="H39" s="80"/>
       <c r="I39" s="80"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="80"/>
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
@@ -8328,7 +8372,7 @@
       <c r="H40" s="80"/>
       <c r="I40" s="80"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="80"/>
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
@@ -8337,7 +8381,7 @@
       <c r="H41" s="80"/>
       <c r="I41" s="80"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
@@ -8346,7 +8390,7 @@
       <c r="H42" s="80"/>
       <c r="I42" s="80"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
@@ -8355,7 +8399,7 @@
       <c r="H43" s="80"/>
       <c r="I43" s="80"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="80"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
@@ -8364,7 +8408,7 @@
       <c r="H44" s="80"/>
       <c r="I44" s="80"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="80"/>
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
@@ -8373,7 +8417,7 @@
       <c r="H45" s="80"/>
       <c r="I45" s="80"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C46" s="80"/>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
@@ -8382,7 +8426,7 @@
       <c r="H46" s="80"/>
       <c r="I46" s="80"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="80"/>
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
@@ -8391,7 +8435,7 @@
       <c r="H47" s="80"/>
       <c r="I47" s="80"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="80"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
@@ -8400,7 +8444,7 @@
       <c r="H48" s="80"/>
       <c r="I48" s="80"/>
     </row>
-    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="80"/>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
@@ -8409,7 +8453,7 @@
       <c r="H49" s="80"/>
       <c r="I49" s="80"/>
     </row>
-    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="80"/>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
@@ -8418,7 +8462,7 @@
       <c r="H50" s="80"/>
       <c r="I50" s="80"/>
     </row>
-    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="80"/>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
@@ -8427,7 +8471,7 @@
       <c r="H51" s="80"/>
       <c r="I51" s="80"/>
     </row>
-    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="80"/>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
@@ -8436,7 +8480,7 @@
       <c r="H52" s="80"/>
       <c r="I52" s="80"/>
     </row>
-    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="80"/>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
@@ -8445,7 +8489,7 @@
       <c r="H53" s="80"/>
       <c r="I53" s="80"/>
     </row>
-    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="80"/>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
@@ -8454,7 +8498,7 @@
       <c r="H54" s="80"/>
       <c r="I54" s="80"/>
     </row>
-    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
@@ -8463,7 +8507,7 @@
       <c r="H55" s="80"/>
       <c r="I55" s="80"/>
     </row>
-    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="80"/>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
@@ -8472,7 +8516,7 @@
       <c r="H56" s="80"/>
       <c r="I56" s="80"/>
     </row>
-    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="80"/>
       <c r="D57" s="80"/>
       <c r="E57" s="80"/>
@@ -8481,7 +8525,7 @@
       <c r="H57" s="80"/>
       <c r="I57" s="80"/>
     </row>
-    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="80"/>
       <c r="D58" s="80"/>
       <c r="E58" s="80"/>
@@ -8490,7 +8534,7 @@
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
     </row>
-    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
@@ -8499,7 +8543,7 @@
       <c r="H59" s="80"/>
       <c r="I59" s="80"/>
     </row>
-    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="80"/>
       <c r="D60" s="80"/>
       <c r="E60" s="80"/>
@@ -8508,7 +8552,7 @@
       <c r="H60" s="80"/>
       <c r="I60" s="80"/>
     </row>
-    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="80"/>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
@@ -8517,7 +8561,7 @@
       <c r="H61" s="80"/>
       <c r="I61" s="80"/>
     </row>
-    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="80"/>
       <c r="D62" s="80"/>
       <c r="E62" s="80"/>
@@ -8526,7 +8570,7 @@
       <c r="H62" s="80"/>
       <c r="I62" s="80"/>
     </row>
-    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="80"/>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -8535,7 +8579,7 @@
       <c r="H63" s="80"/>
       <c r="I63" s="80"/>
     </row>
-    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="80"/>
       <c r="D64" s="80"/>
       <c r="E64" s="80"/>
@@ -8544,7 +8588,7 @@
       <c r="H64" s="80"/>
       <c r="I64" s="80"/>
     </row>
-    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="80"/>
       <c r="D65" s="80"/>
       <c r="E65" s="80"/>
@@ -8553,7 +8597,7 @@
       <c r="H65" s="80"/>
       <c r="I65" s="80"/>
     </row>
-    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
       <c r="E66" s="80"/>
@@ -8562,7 +8606,7 @@
       <c r="H66" s="80"/>
       <c r="I66" s="80"/>
     </row>
-    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="80"/>
       <c r="D67" s="80"/>
       <c r="E67" s="80"/>
@@ -8571,7 +8615,7 @@
       <c r="H67" s="80"/>
       <c r="I67" s="80"/>
     </row>
-    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="80"/>
       <c r="D68" s="80"/>
       <c r="E68" s="80"/>
@@ -8580,7 +8624,7 @@
       <c r="H68" s="80"/>
       <c r="I68" s="80"/>
     </row>
-    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="80"/>
       <c r="D69" s="80"/>
       <c r="E69" s="80"/>
@@ -8604,759 +8648,759 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>45</v>
       </c>

--- a/contratoguia.xlsx
+++ b/contratoguia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenis\OneDrive\Desktop\R_Projects\central_am_migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05226925-8FDD-4610-ADB7-03E953BF81C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3BDA87-65F0-4B9E-8DBE-E68688C2E342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="660" windowWidth="12450" windowHeight="15165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="moneda conversion table" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="101">
   <si>
     <t>Ano</t>
   </si>
@@ -338,9 +338,6 @@
   </si>
   <si>
     <t>percentage_ch</t>
-  </si>
-  <si>
-    <t>adj_perc</t>
   </si>
 </sst>
 </file>
@@ -351,7 +348,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -387,12 +384,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -602,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,8 +742,6 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3217,9 +3206,9 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3277,7 +3266,7 @@
       <c r="W1" s="8"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>2019</v>
       </c>
@@ -3331,7 +3320,7 @@
       <c r="V2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -3385,7 +3374,7 @@
       <c r="V3" s="5"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>2017</v>
       </c>
@@ -3435,7 +3424,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>2016</v>
       </c>
@@ -3485,7 +3474,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>2015</v>
       </c>
@@ -3535,7 +3524,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>2014</v>
       </c>
@@ -3585,7 +3574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -3635,7 +3624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>2012</v>
       </c>
@@ -3685,7 +3674,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>2011</v>
       </c>
@@ -3735,7 +3724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -3745,7 +3734,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -3755,57 +3744,57 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.5">
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.5">
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.5">
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.5">
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.5">
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.5">
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.5">
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.5">
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.5">
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.5">
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="26"/>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.5">
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="26"/>
@@ -3820,287 +3809,254 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.42578125" style="103"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>2011</v>
       </c>
-      <c r="B2" s="102">
-        <v>49</v>
-      </c>
-      <c r="C2" s="101">
+      <c r="B2" s="101">
         <v>47</v>
       </c>
-      <c r="D2" s="5">
+      <c r="C2" s="5">
         <v>21.3</v>
       </c>
+      <c r="D2" s="6">
+        <v>2470</v>
+      </c>
       <c r="E2" s="6">
-        <v>2470</v>
-      </c>
-      <c r="F2" s="6">
         <v>1110</v>
       </c>
-      <c r="G2" s="5">
+      <c r="F2" s="5">
         <v>5212</v>
       </c>
-      <c r="H2" s="101">
+      <c r="G2" s="101">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2012</v>
       </c>
-      <c r="B3" s="102">
-        <v>48</v>
-      </c>
-      <c r="C3" s="101">
+      <c r="B3" s="101">
         <v>45</v>
       </c>
-      <c r="D3" s="5">
+      <c r="C3" s="5">
         <v>54.71</v>
       </c>
+      <c r="D3" s="6">
+        <v>2608</v>
+      </c>
       <c r="E3" s="6">
-        <v>2608</v>
-      </c>
-      <c r="F3" s="6">
         <v>3160</v>
       </c>
-      <c r="G3" s="5">
+      <c r="F3" s="5">
         <v>5776</v>
       </c>
-      <c r="H3" s="101">
+      <c r="G3" s="101">
         <v>45.15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2013</v>
       </c>
-      <c r="B4" s="102">
-        <v>56</v>
-      </c>
-      <c r="C4" s="101">
+      <c r="B4" s="101">
         <v>54</v>
       </c>
-      <c r="D4" s="5">
+      <c r="C4" s="5">
         <v>45.7</v>
       </c>
+      <c r="D4" s="6">
+        <v>3751</v>
+      </c>
       <c r="E4" s="6">
-        <v>3751</v>
-      </c>
-      <c r="F4" s="6">
         <v>3191</v>
       </c>
-      <c r="G4" s="5">
+      <c r="F4" s="5">
         <v>6982</v>
       </c>
-      <c r="H4" s="101">
+      <c r="G4" s="101">
         <v>53.72</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2014</v>
       </c>
-      <c r="B5" s="102">
-        <v>58</v>
-      </c>
-      <c r="C5" s="101">
+      <c r="B5" s="101">
         <v>56</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C5" s="5">
         <v>43.49</v>
       </c>
+      <c r="D5" s="6">
+        <v>3570</v>
+      </c>
       <c r="E5" s="6">
-        <v>3570</v>
-      </c>
-      <c r="F5" s="6">
         <v>2794</v>
       </c>
-      <c r="G5" s="5">
+      <c r="F5" s="5">
         <v>6424</v>
       </c>
-      <c r="H5" s="101">
+      <c r="G5" s="101">
         <v>55.57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2015</v>
       </c>
-      <c r="B6" s="102">
-        <v>59</v>
-      </c>
-      <c r="C6" s="101">
+      <c r="B6" s="101">
         <v>57</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C6" s="5">
         <v>42.72</v>
       </c>
+      <c r="D6" s="6">
+        <v>2855</v>
+      </c>
       <c r="E6" s="6">
-        <v>2855</v>
-      </c>
-      <c r="F6" s="6">
         <v>2145</v>
       </c>
-      <c r="G6" s="5">
+      <c r="F6" s="5">
         <v>5021</v>
       </c>
-      <c r="H6" s="101">
+      <c r="G6" s="101">
         <v>56.86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
-      <c r="B7" s="102">
-        <v>63</v>
-      </c>
-      <c r="C7" s="101">
+      <c r="B7" s="101">
         <v>61</v>
       </c>
-      <c r="D7" s="5">
+      <c r="C7" s="5">
         <v>37.97</v>
       </c>
+      <c r="D7" s="6">
+        <v>2735</v>
+      </c>
       <c r="E7" s="6">
-        <v>2735</v>
-      </c>
-      <c r="F7" s="6">
         <v>1704</v>
       </c>
-      <c r="G7" s="5">
+      <c r="F7" s="5">
         <v>4488</v>
       </c>
-      <c r="H7" s="101">
+      <c r="G7" s="101">
         <v>60.94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2017</v>
       </c>
-      <c r="B8" s="102">
-        <v>61</v>
-      </c>
-      <c r="C8" s="101">
+      <c r="B8" s="101">
         <v>59</v>
       </c>
-      <c r="D8" s="5">
+      <c r="C8" s="5">
         <v>39.46</v>
       </c>
+      <c r="D8" s="6">
+        <v>2587</v>
+      </c>
       <c r="E8" s="6">
-        <v>2587</v>
-      </c>
-      <c r="F8" s="6">
         <v>1725</v>
       </c>
-      <c r="G8" s="5">
+      <c r="F8" s="5">
         <v>4371</v>
       </c>
-      <c r="H8" s="101">
+      <c r="G8" s="101">
         <v>59.19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2018</v>
       </c>
-      <c r="B9" s="102">
-        <v>60</v>
-      </c>
-      <c r="C9" s="101">
+      <c r="B9" s="101">
         <v>58</v>
       </c>
-      <c r="D9" s="5">
+      <c r="C9" s="5">
         <v>40.450000000000003</v>
       </c>
+      <c r="D9" s="6">
+        <v>2290</v>
+      </c>
       <c r="E9" s="6">
-        <v>2290</v>
-      </c>
-      <c r="F9" s="6">
         <v>1605</v>
       </c>
-      <c r="G9" s="5">
+      <c r="F9" s="5">
         <v>3968</v>
       </c>
-      <c r="H9" s="101">
+      <c r="G9" s="101">
         <v>57.71</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2019</v>
       </c>
-      <c r="B10" s="102">
-        <v>53</v>
-      </c>
-      <c r="C10" s="101">
+      <c r="B10" s="101">
         <v>50</v>
       </c>
+      <c r="C10" s="5">
+        <v>48.1</v>
+      </c>
       <c r="D10" s="5">
-        <v>48.1</v>
+        <v>882</v>
       </c>
       <c r="E10" s="5">
-        <v>882</v>
+        <v>846</v>
       </c>
       <c r="F10" s="5">
-        <v>846</v>
-      </c>
-      <c r="G10" s="5">
         <v>1759</v>
       </c>
-      <c r="H10" s="101">
+      <c r="G10" s="101">
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="10">
+        <f t="shared" ref="D11:F11" si="0">SUM(D2:D10)</f>
+        <v>23748</v>
+      </c>
       <c r="E11" s="10">
-        <f t="shared" ref="E11:G11" si="0">SUM(E2:E10)</f>
-        <v>23748</v>
-      </c>
-      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>18280</v>
       </c>
-      <c r="G11" s="12">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>44001</v>
       </c>
@@ -4119,9 +4075,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4131,7 +4087,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -4187,7 +4143,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="17">
         <v>2011</v>
       </c>
@@ -4240,7 +4196,7 @@
         <v>57.48</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="28">
         <v>2011</v>
       </c>
@@ -4299,7 +4255,7 @@
         <v>60.77</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="28">
         <v>2011</v>
       </c>
@@ -4352,7 +4308,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="33">
         <v>2011</v>
       </c>
@@ -4405,7 +4361,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>2012</v>
       </c>
@@ -4446,7 +4402,7 @@
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44">
         <v>2012</v>
       </c>
@@ -4481,7 +4437,7 @@
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44">
         <v>2012</v>
       </c>
@@ -4516,7 +4472,7 @@
       <c r="N12" s="52"/>
       <c r="O12" s="52"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>2012</v>
       </c>
@@ -4548,7 +4504,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>2013</v>
       </c>
@@ -4583,7 +4539,7 @@
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>2013</v>
       </c>
@@ -4615,7 +4571,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28">
         <v>2013</v>
       </c>
@@ -4647,7 +4603,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
         <v>2013</v>
       </c>
@@ -4676,7 +4632,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38">
         <v>2014</v>
       </c>
@@ -4708,7 +4664,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44">
         <v>2014</v>
       </c>
@@ -4740,7 +4696,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44">
         <v>2014</v>
       </c>
@@ -4772,7 +4728,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="55">
         <v>2014</v>
       </c>
@@ -4801,7 +4757,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>2015</v>
       </c>
@@ -4833,7 +4789,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
         <v>2015</v>
       </c>
@@ -4865,7 +4821,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
         <v>2015</v>
       </c>
@@ -4897,7 +4853,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33">
         <v>2015</v>
       </c>
@@ -4926,7 +4882,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38">
         <v>2016</v>
       </c>
@@ -4958,7 +4914,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44">
         <v>2016</v>
       </c>
@@ -4990,7 +4946,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44">
         <v>2016</v>
       </c>
@@ -5022,7 +4978,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="55">
         <v>2016</v>
       </c>
@@ -5051,7 +5007,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>2017</v>
       </c>
@@ -5083,7 +5039,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28">
         <v>2017</v>
       </c>
@@ -5115,7 +5071,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28">
         <v>2017</v>
       </c>
@@ -5147,7 +5103,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="33">
         <v>2017</v>
       </c>
@@ -5176,7 +5132,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="38">
         <v>2018</v>
       </c>
@@ -5208,7 +5164,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44">
         <v>2018</v>
       </c>
@@ -5240,7 +5196,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44">
         <v>2018</v>
       </c>
@@ -5272,7 +5228,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>2018</v>
       </c>
@@ -5301,7 +5257,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28">
         <v>2019</v>
       </c>
@@ -5333,7 +5289,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="28">
         <v>2019</v>
       </c>
@@ -5365,7 +5321,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28">
         <v>2019</v>
       </c>
@@ -5397,7 +5353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="33">
         <v>2019</v>
       </c>
@@ -5426,7 +5382,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
@@ -5435,7 +5391,7 @@
       <c r="H42" s="80"/>
       <c r="I42" s="80"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
@@ -5444,7 +5400,7 @@
       <c r="H43" s="80"/>
       <c r="I43" s="80"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="80"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
@@ -5453,7 +5409,7 @@
       <c r="H44" s="80"/>
       <c r="I44" s="80"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C45" s="80"/>
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
@@ -5462,7 +5418,7 @@
       <c r="H45" s="80"/>
       <c r="I45" s="80"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C46" s="80"/>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
@@ -5471,7 +5427,7 @@
       <c r="H46" s="80"/>
       <c r="I46" s="80"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C47" s="80"/>
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
@@ -5480,7 +5436,7 @@
       <c r="H47" s="80"/>
       <c r="I47" s="80"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C48" s="80"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
@@ -5489,7 +5445,7 @@
       <c r="H48" s="80"/>
       <c r="I48" s="80"/>
     </row>
-    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C49" s="80"/>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
@@ -5498,7 +5454,7 @@
       <c r="H49" s="80"/>
       <c r="I49" s="80"/>
     </row>
-    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C50" s="80"/>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
@@ -5507,7 +5463,7 @@
       <c r="H50" s="80"/>
       <c r="I50" s="80"/>
     </row>
-    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C51" s="80"/>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
@@ -5516,7 +5472,7 @@
       <c r="H51" s="80"/>
       <c r="I51" s="80"/>
     </row>
-    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C52" s="80"/>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
@@ -5525,7 +5481,7 @@
       <c r="H52" s="80"/>
       <c r="I52" s="80"/>
     </row>
-    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C53" s="80"/>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
@@ -5534,7 +5490,7 @@
       <c r="H53" s="80"/>
       <c r="I53" s="80"/>
     </row>
-    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C54" s="80"/>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
@@ -5543,7 +5499,7 @@
       <c r="H54" s="80"/>
       <c r="I54" s="80"/>
     </row>
-    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
@@ -5552,7 +5508,7 @@
       <c r="H55" s="80"/>
       <c r="I55" s="80"/>
     </row>
-    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C56" s="80"/>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
@@ -5561,7 +5517,7 @@
       <c r="H56" s="80"/>
       <c r="I56" s="80"/>
     </row>
-    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C57" s="80"/>
       <c r="D57" s="80"/>
       <c r="E57" s="80"/>
@@ -5570,7 +5526,7 @@
       <c r="H57" s="80"/>
       <c r="I57" s="80"/>
     </row>
-    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C58" s="80"/>
       <c r="D58" s="80"/>
       <c r="E58" s="80"/>
@@ -5579,7 +5535,7 @@
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
     </row>
-    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
@@ -5588,7 +5544,7 @@
       <c r="H59" s="80"/>
       <c r="I59" s="80"/>
     </row>
-    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C60" s="80"/>
       <c r="D60" s="80"/>
       <c r="E60" s="80"/>
@@ -5597,7 +5553,7 @@
       <c r="H60" s="80"/>
       <c r="I60" s="80"/>
     </row>
-    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C61" s="80"/>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
@@ -5606,7 +5562,7 @@
       <c r="H61" s="80"/>
       <c r="I61" s="80"/>
     </row>
-    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C62" s="80"/>
       <c r="D62" s="80"/>
       <c r="E62" s="80"/>
@@ -5615,7 +5571,7 @@
       <c r="H62" s="80"/>
       <c r="I62" s="80"/>
     </row>
-    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C63" s="80"/>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -5624,7 +5580,7 @@
       <c r="H63" s="80"/>
       <c r="I63" s="80"/>
     </row>
-    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C64" s="80"/>
       <c r="D64" s="80"/>
       <c r="E64" s="80"/>
@@ -5633,7 +5589,7 @@
       <c r="H64" s="80"/>
       <c r="I64" s="80"/>
     </row>
-    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C65" s="80"/>
       <c r="D65" s="80"/>
       <c r="E65" s="80"/>
@@ -5642,7 +5598,7 @@
       <c r="H65" s="80"/>
       <c r="I65" s="80"/>
     </row>
-    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
       <c r="E66" s="80"/>
@@ -5651,7 +5607,7 @@
       <c r="H66" s="80"/>
       <c r="I66" s="80"/>
     </row>
-    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C67" s="80"/>
       <c r="D67" s="80"/>
       <c r="E67" s="80"/>
@@ -5660,7 +5616,7 @@
       <c r="H67" s="80"/>
       <c r="I67" s="80"/>
     </row>
-    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C68" s="80"/>
       <c r="D68" s="80"/>
       <c r="E68" s="80"/>
@@ -5669,7 +5625,7 @@
       <c r="H68" s="80"/>
       <c r="I68" s="80"/>
     </row>
-    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C69" s="80"/>
       <c r="D69" s="80"/>
       <c r="E69" s="80"/>
@@ -5678,7 +5634,7 @@
       <c r="H69" s="80"/>
       <c r="I69" s="80"/>
     </row>
-    <row r="70" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C70" s="80"/>
       <c r="D70" s="80"/>
       <c r="E70" s="80"/>
@@ -5687,7 +5643,7 @@
       <c r="H70" s="80"/>
       <c r="I70" s="80"/>
     </row>
-    <row r="71" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C71" s="80"/>
       <c r="D71" s="80"/>
       <c r="E71" s="80"/>
@@ -5696,7 +5652,7 @@
       <c r="H71" s="80"/>
       <c r="I71" s="80"/>
     </row>
-    <row r="72" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C72" s="80"/>
       <c r="D72" s="80"/>
       <c r="E72" s="80"/>
@@ -5705,7 +5661,7 @@
       <c r="H72" s="80"/>
       <c r="I72" s="80"/>
     </row>
-    <row r="73" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C73" s="80"/>
       <c r="D73" s="80"/>
       <c r="E73" s="80"/>
@@ -5729,9 +5685,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -5742,7 +5698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -5792,7 +5748,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="17">
         <v>2012</v>
       </c>
@@ -5845,7 +5801,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="28">
         <v>2012</v>
       </c>
@@ -5898,7 +5854,7 @@
         <v>56.65</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="28"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -5919,7 +5875,7 @@
       <c r="T8" s="56"/>
       <c r="U8" s="56"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="33"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -5940,7 +5896,7 @@
       <c r="T9" s="56"/>
       <c r="U9" s="56"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>2013</v>
       </c>
@@ -5975,7 +5931,7 @@
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44">
         <v>2013</v>
       </c>
@@ -6003,7 +5959,7 @@
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44"/>
       <c r="B12" s="30"/>
       <c r="E12" s="47"/>
@@ -6013,7 +5969,7 @@
       <c r="N12" s="52"/>
       <c r="O12" s="52"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="55"/>
       <c r="B13" s="35"/>
       <c r="C13" s="58"/>
@@ -6028,7 +5984,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>2014</v>
       </c>
@@ -6057,7 +6013,7 @@
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>2014</v>
       </c>
@@ -6083,7 +6039,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -6095,7 +6051,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -6107,7 +6063,7 @@
       <c r="I17" s="62"/>
       <c r="J17" s="63"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38">
         <v>2015</v>
       </c>
@@ -6133,7 +6089,7 @@
       <c r="I18" s="40"/>
       <c r="J18" s="43"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44">
         <v>2015</v>
       </c>
@@ -6158,13 +6114,13 @@
       <c r="H19" s="44"/>
       <c r="J19" s="50"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="30"/>
       <c r="H20" s="44"/>
       <c r="J20" s="50"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="55"/>
       <c r="B21" s="35"/>
       <c r="C21" s="58"/>
@@ -6176,7 +6132,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="66"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>2016</v>
       </c>
@@ -6202,7 +6158,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
         <v>2016</v>
       </c>
@@ -6228,7 +6184,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -6240,7 +6196,7 @@
       <c r="I24" s="30"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -6252,7 +6208,7 @@
       <c r="I25" s="62"/>
       <c r="J25" s="63"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38">
         <v>2017</v>
       </c>
@@ -6278,7 +6234,7 @@
       <c r="I26" s="40"/>
       <c r="J26" s="43"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44">
         <v>2017</v>
       </c>
@@ -6303,13 +6259,13 @@
       <c r="H27" s="44"/>
       <c r="J27" s="50"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44"/>
       <c r="B28" s="30"/>
       <c r="H28" s="44"/>
       <c r="J28" s="50"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="55"/>
       <c r="B29" s="35"/>
       <c r="C29" s="58"/>
@@ -6321,7 +6277,7 @@
       <c r="I29" s="65"/>
       <c r="J29" s="66"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>2018</v>
       </c>
@@ -6347,7 +6303,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28">
         <v>2018</v>
       </c>
@@ -6373,7 +6329,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -6385,7 +6341,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="33"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -6397,7 +6353,7 @@
       <c r="I33" s="62"/>
       <c r="J33" s="63"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="38">
         <v>2019</v>
       </c>
@@ -6423,7 +6379,7 @@
       <c r="I34" s="40"/>
       <c r="J34" s="43"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44">
         <v>2019</v>
       </c>
@@ -6448,13 +6404,13 @@
       <c r="H35" s="44"/>
       <c r="J35" s="50"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44"/>
       <c r="B36" s="30"/>
       <c r="H36" s="44"/>
       <c r="J36" s="50"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="55"/>
       <c r="B37" s="58"/>
       <c r="C37" s="58"/>
@@ -6466,7 +6422,7 @@
       <c r="I37" s="65"/>
       <c r="J37" s="66"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -6478,7 +6434,7 @@
       <c r="I38" s="30"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="28"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -6490,7 +6446,7 @@
       <c r="I39" s="30"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -6502,7 +6458,7 @@
       <c r="I40" s="30"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="33"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -6514,7 +6470,7 @@
       <c r="I41" s="62"/>
       <c r="J41" s="63"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
@@ -6523,7 +6479,7 @@
       <c r="H42" s="80"/>
       <c r="I42" s="80"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
@@ -6532,7 +6488,7 @@
       <c r="H43" s="80"/>
       <c r="I43" s="80"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="80"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
@@ -6541,7 +6497,7 @@
       <c r="H44" s="80"/>
       <c r="I44" s="80"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C45" s="80"/>
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
@@ -6550,7 +6506,7 @@
       <c r="H45" s="80"/>
       <c r="I45" s="80"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C46" s="80"/>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
@@ -6559,7 +6515,7 @@
       <c r="H46" s="80"/>
       <c r="I46" s="80"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C47" s="80"/>
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
@@ -6568,7 +6524,7 @@
       <c r="H47" s="80"/>
       <c r="I47" s="80"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C48" s="80"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
@@ -6577,7 +6533,7 @@
       <c r="H48" s="80"/>
       <c r="I48" s="80"/>
     </row>
-    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C49" s="80"/>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
@@ -6586,7 +6542,7 @@
       <c r="H49" s="80"/>
       <c r="I49" s="80"/>
     </row>
-    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C50" s="80"/>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
@@ -6595,7 +6551,7 @@
       <c r="H50" s="80"/>
       <c r="I50" s="80"/>
     </row>
-    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C51" s="80"/>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
@@ -6604,7 +6560,7 @@
       <c r="H51" s="80"/>
       <c r="I51" s="80"/>
     </row>
-    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C52" s="80"/>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
@@ -6613,7 +6569,7 @@
       <c r="H52" s="80"/>
       <c r="I52" s="80"/>
     </row>
-    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C53" s="80"/>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
@@ -6622,7 +6578,7 @@
       <c r="H53" s="80"/>
       <c r="I53" s="80"/>
     </row>
-    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C54" s="80"/>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
@@ -6631,7 +6587,7 @@
       <c r="H54" s="80"/>
       <c r="I54" s="80"/>
     </row>
-    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
@@ -6640,7 +6596,7 @@
       <c r="H55" s="80"/>
       <c r="I55" s="80"/>
     </row>
-    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C56" s="80"/>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
@@ -6649,7 +6605,7 @@
       <c r="H56" s="80"/>
       <c r="I56" s="80"/>
     </row>
-    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C57" s="80"/>
       <c r="D57" s="80"/>
       <c r="E57" s="80"/>
@@ -6658,7 +6614,7 @@
       <c r="H57" s="80"/>
       <c r="I57" s="80"/>
     </row>
-    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C58" s="80"/>
       <c r="D58" s="80"/>
       <c r="E58" s="80"/>
@@ -6667,7 +6623,7 @@
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
     </row>
-    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
@@ -6676,7 +6632,7 @@
       <c r="H59" s="80"/>
       <c r="I59" s="80"/>
     </row>
-    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C60" s="80"/>
       <c r="D60" s="80"/>
       <c r="E60" s="80"/>
@@ -6685,7 +6641,7 @@
       <c r="H60" s="80"/>
       <c r="I60" s="80"/>
     </row>
-    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C61" s="80"/>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
@@ -6694,7 +6650,7 @@
       <c r="H61" s="80"/>
       <c r="I61" s="80"/>
     </row>
-    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C62" s="80"/>
       <c r="D62" s="80"/>
       <c r="E62" s="80"/>
@@ -6703,7 +6659,7 @@
       <c r="H62" s="80"/>
       <c r="I62" s="80"/>
     </row>
-    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C63" s="80"/>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -6712,7 +6668,7 @@
       <c r="H63" s="80"/>
       <c r="I63" s="80"/>
     </row>
-    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C64" s="80"/>
       <c r="D64" s="80"/>
       <c r="E64" s="80"/>
@@ -6721,7 +6677,7 @@
       <c r="H64" s="80"/>
       <c r="I64" s="80"/>
     </row>
-    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C65" s="80"/>
       <c r="D65" s="80"/>
       <c r="E65" s="80"/>
@@ -6730,7 +6686,7 @@
       <c r="H65" s="80"/>
       <c r="I65" s="80"/>
     </row>
-    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
       <c r="E66" s="80"/>
@@ -6739,7 +6695,7 @@
       <c r="H66" s="80"/>
       <c r="I66" s="80"/>
     </row>
-    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C67" s="80"/>
       <c r="D67" s="80"/>
       <c r="E67" s="80"/>
@@ -6748,7 +6704,7 @@
       <c r="H67" s="80"/>
       <c r="I67" s="80"/>
     </row>
-    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C68" s="80"/>
       <c r="D68" s="80"/>
       <c r="E68" s="80"/>
@@ -6757,7 +6713,7 @@
       <c r="H68" s="80"/>
       <c r="I68" s="80"/>
     </row>
-    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C69" s="80"/>
       <c r="D69" s="80"/>
       <c r="E69" s="80"/>
@@ -6766,7 +6722,7 @@
       <c r="H69" s="80"/>
       <c r="I69" s="80"/>
     </row>
-    <row r="70" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C70" s="80"/>
       <c r="D70" s="80"/>
       <c r="E70" s="80"/>
@@ -6775,7 +6731,7 @@
       <c r="H70" s="80"/>
       <c r="I70" s="80"/>
     </row>
-    <row r="71" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C71" s="80"/>
       <c r="D71" s="80"/>
       <c r="E71" s="80"/>
@@ -6784,7 +6740,7 @@
       <c r="H71" s="80"/>
       <c r="I71" s="80"/>
     </row>
-    <row r="72" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C72" s="80"/>
       <c r="D72" s="80"/>
       <c r="E72" s="80"/>
@@ -6793,7 +6749,7 @@
       <c r="H72" s="80"/>
       <c r="I72" s="80"/>
     </row>
-    <row r="73" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C73" s="80"/>
       <c r="D73" s="80"/>
       <c r="E73" s="80"/>
@@ -6817,9 +6773,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -6857,7 +6813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>2011</v>
       </c>
@@ -6889,7 +6845,7 @@
       <c r="AA2" s="52"/>
       <c r="AB2" s="52"/>
     </row>
-    <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>2011</v>
       </c>
@@ -6977,7 +6933,7 @@
       <c r="AL3" s="78"/>
       <c r="AM3" s="78"/>
     </row>
-    <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>2011</v>
       </c>
@@ -7063,7 +7019,7 @@
       <c r="AL4" s="70"/>
       <c r="AM4" s="70"/>
     </row>
-    <row r="5" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>2011</v>
       </c>
@@ -7151,7 +7107,7 @@
       <c r="AL5" s="70"/>
       <c r="AM5" s="70"/>
     </row>
-    <row r="6" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>2012</v>
       </c>
@@ -7243,7 +7199,7 @@
       <c r="AL6" s="70"/>
       <c r="AM6" s="70"/>
     </row>
-    <row r="7" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44">
         <v>2012</v>
       </c>
@@ -7350,7 +7306,7 @@
       <c r="AL7" s="96"/>
       <c r="AM7" s="96"/>
     </row>
-    <row r="8" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44">
         <v>2012</v>
       </c>
@@ -7387,7 +7343,7 @@
       <c r="T8" s="97"/>
       <c r="AC8" s="98"/>
     </row>
-    <row r="9" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>2012</v>
       </c>
@@ -7425,7 +7381,7 @@
       <c r="N9" s="52"/>
       <c r="O9" s="52"/>
     </row>
-    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>2013</v>
       </c>
@@ -7460,7 +7416,7 @@
       <c r="N10" s="52"/>
       <c r="O10" s="52"/>
     </row>
-    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>2013</v>
       </c>
@@ -7492,7 +7448,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>2013</v>
       </c>
@@ -7524,7 +7480,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>2013</v>
       </c>
@@ -7559,7 +7515,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38">
         <v>2014</v>
       </c>
@@ -7591,7 +7547,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44">
         <v>2014</v>
       </c>
@@ -7623,7 +7579,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44">
         <v>2014</v>
       </c>
@@ -7655,7 +7611,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>2014</v>
       </c>
@@ -7690,7 +7646,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>2015</v>
       </c>
@@ -7722,7 +7678,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>2015</v>
       </c>
@@ -7754,7 +7710,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>2015</v>
       </c>
@@ -7786,7 +7742,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33">
         <v>2015</v>
       </c>
@@ -7821,7 +7777,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <v>2016</v>
       </c>
@@ -7853,7 +7809,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44">
         <v>2016</v>
       </c>
@@ -7885,7 +7841,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44">
         <v>2016</v>
       </c>
@@ -7917,7 +7873,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>2016</v>
       </c>
@@ -7952,7 +7908,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>2017</v>
       </c>
@@ -7984,7 +7940,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>2017</v>
       </c>
@@ -8016,7 +7972,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>2017</v>
       </c>
@@ -8048,7 +8004,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="33">
         <v>2017</v>
       </c>
@@ -8083,7 +8039,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38">
         <v>2018</v>
       </c>
@@ -8115,7 +8071,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44">
         <v>2018</v>
       </c>
@@ -8147,7 +8103,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44">
         <v>2018</v>
       </c>
@@ -8179,7 +8135,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>2018</v>
       </c>
@@ -8214,7 +8170,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="28">
         <v>2019</v>
       </c>
@@ -8246,7 +8202,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="28">
         <v>2019</v>
       </c>
@@ -8278,7 +8234,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="28">
         <v>2019</v>
       </c>
@@ -8310,7 +8266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="33">
         <v>2019</v>
       </c>
@@ -8345,7 +8301,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" s="80"/>
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
@@ -8354,7 +8310,7 @@
       <c r="H38" s="80"/>
       <c r="I38" s="80"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="80"/>
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
@@ -8363,7 +8319,7 @@
       <c r="H39" s="80"/>
       <c r="I39" s="80"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" s="80"/>
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
@@ -8372,7 +8328,7 @@
       <c r="H40" s="80"/>
       <c r="I40" s="80"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="80"/>
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
@@ -8381,7 +8337,7 @@
       <c r="H41" s="80"/>
       <c r="I41" s="80"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
@@ -8390,7 +8346,7 @@
       <c r="H42" s="80"/>
       <c r="I42" s="80"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
@@ -8399,7 +8355,7 @@
       <c r="H43" s="80"/>
       <c r="I43" s="80"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="80"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
@@ -8408,7 +8364,7 @@
       <c r="H44" s="80"/>
       <c r="I44" s="80"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C45" s="80"/>
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
@@ -8417,7 +8373,7 @@
       <c r="H45" s="80"/>
       <c r="I45" s="80"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C46" s="80"/>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
@@ -8426,7 +8382,7 @@
       <c r="H46" s="80"/>
       <c r="I46" s="80"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C47" s="80"/>
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
@@ -8435,7 +8391,7 @@
       <c r="H47" s="80"/>
       <c r="I47" s="80"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C48" s="80"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
@@ -8444,7 +8400,7 @@
       <c r="H48" s="80"/>
       <c r="I48" s="80"/>
     </row>
-    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C49" s="80"/>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
@@ -8453,7 +8409,7 @@
       <c r="H49" s="80"/>
       <c r="I49" s="80"/>
     </row>
-    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C50" s="80"/>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
@@ -8462,7 +8418,7 @@
       <c r="H50" s="80"/>
       <c r="I50" s="80"/>
     </row>
-    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C51" s="80"/>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
@@ -8471,7 +8427,7 @@
       <c r="H51" s="80"/>
       <c r="I51" s="80"/>
     </row>
-    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C52" s="80"/>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
@@ -8480,7 +8436,7 @@
       <c r="H52" s="80"/>
       <c r="I52" s="80"/>
     </row>
-    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C53" s="80"/>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
@@ -8489,7 +8445,7 @@
       <c r="H53" s="80"/>
       <c r="I53" s="80"/>
     </row>
-    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C54" s="80"/>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
@@ -8498,7 +8454,7 @@
       <c r="H54" s="80"/>
       <c r="I54" s="80"/>
     </row>
-    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
@@ -8507,7 +8463,7 @@
       <c r="H55" s="80"/>
       <c r="I55" s="80"/>
     </row>
-    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C56" s="80"/>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
@@ -8516,7 +8472,7 @@
       <c r="H56" s="80"/>
       <c r="I56" s="80"/>
     </row>
-    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C57" s="80"/>
       <c r="D57" s="80"/>
       <c r="E57" s="80"/>
@@ -8525,7 +8481,7 @@
       <c r="H57" s="80"/>
       <c r="I57" s="80"/>
     </row>
-    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C58" s="80"/>
       <c r="D58" s="80"/>
       <c r="E58" s="80"/>
@@ -8534,7 +8490,7 @@
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
     </row>
-    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
@@ -8543,7 +8499,7 @@
       <c r="H59" s="80"/>
       <c r="I59" s="80"/>
     </row>
-    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C60" s="80"/>
       <c r="D60" s="80"/>
       <c r="E60" s="80"/>
@@ -8552,7 +8508,7 @@
       <c r="H60" s="80"/>
       <c r="I60" s="80"/>
     </row>
-    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C61" s="80"/>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
@@ -8561,7 +8517,7 @@
       <c r="H61" s="80"/>
       <c r="I61" s="80"/>
     </row>
-    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C62" s="80"/>
       <c r="D62" s="80"/>
       <c r="E62" s="80"/>
@@ -8570,7 +8526,7 @@
       <c r="H62" s="80"/>
       <c r="I62" s="80"/>
     </row>
-    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C63" s="80"/>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -8579,7 +8535,7 @@
       <c r="H63" s="80"/>
       <c r="I63" s="80"/>
     </row>
-    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C64" s="80"/>
       <c r="D64" s="80"/>
       <c r="E64" s="80"/>
@@ -8588,7 +8544,7 @@
       <c r="H64" s="80"/>
       <c r="I64" s="80"/>
     </row>
-    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C65" s="80"/>
       <c r="D65" s="80"/>
       <c r="E65" s="80"/>
@@ -8597,7 +8553,7 @@
       <c r="H65" s="80"/>
       <c r="I65" s="80"/>
     </row>
-    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
       <c r="E66" s="80"/>
@@ -8606,7 +8562,7 @@
       <c r="H66" s="80"/>
       <c r="I66" s="80"/>
     </row>
-    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C67" s="80"/>
       <c r="D67" s="80"/>
       <c r="E67" s="80"/>
@@ -8615,7 +8571,7 @@
       <c r="H67" s="80"/>
       <c r="I67" s="80"/>
     </row>
-    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C68" s="80"/>
       <c r="D68" s="80"/>
       <c r="E68" s="80"/>
@@ -8624,7 +8580,7 @@
       <c r="H68" s="80"/>
       <c r="I68" s="80"/>
     </row>
-    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C69" s="80"/>
       <c r="D69" s="80"/>
       <c r="E69" s="80"/>
@@ -8648,759 +8604,759 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>45</v>
       </c>
